--- a/src/kraken_files/excel_files/QTUMUSD.xlsx
+++ b/src/kraken_files/excel_files/QTUMUSD.xlsx
@@ -576,7 +576,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,16 +594,6 @@
         <is>
           <t>required_price</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ONP6HY-QDL6G-OFIHDQ</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>17.65925</v>
       </c>
     </row>
   </sheetData>
@@ -617,7 +607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,6 +629,13 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>OXY6TJ-MHPTQ-PHNPRJ</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
